--- a/data/trans_camb/P6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,91</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,81</t>
+          <t>18,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>17,37</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 11,51</t>
+          <t>-14,67; 14,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 18,11</t>
+          <t>-5,55; 30,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 21,87</t>
+          <t>-3,25; 36,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 18,26</t>
+          <t>-12,78; 13,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 30,1</t>
+          <t>-1,27; 28,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 36,42</t>
+          <t>3,03; 35,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 10,39</t>
+          <t>-9,1; 11,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 19,32</t>
+          <t>0,55; 25,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 22,9</t>
+          <t>5,68; 30,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>123,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,73%</t>
+          <t>171,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>121,7%</t>
+          <t>114,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>164,58%</t>
+          <t>169,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100,72%</t>
+          <t>116,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127,27%</t>
+          <t>166,93%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 679,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 622,41</t>
+          <t>-65,52; 1027,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 733,68</t>
+          <t>-49,82; 1171,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 269,33</t>
+          <t>-75,46; 297,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 452,41</t>
+          <t>-23,46; 609,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 543,89</t>
+          <t>-5,56; 667,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 170,49</t>
+          <t>-60,01; 207,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 290,2</t>
+          <t>-4,21; 423,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 364,78</t>
+          <t>27,98; 559,34</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,76</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>15,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 14,8</t>
+          <t>-8,02; 10,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 22,26</t>
+          <t>-5,07; 17,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 29,5</t>
+          <t>-1,04; 25,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,2</t>
+          <t>-5,75; 12,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 19,66</t>
+          <t>-0,8; 21,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 27,05</t>
+          <t>10,18; 36,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 10,61</t>
+          <t>-4,37; 7,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 18,03</t>
+          <t>-0,0; 15,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 24,2</t>
+          <t>6,7; 25,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>121,37%</t>
+          <t>106,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>195,41%</t>
+          <t>236,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>146,07%</t>
+          <t>192,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>240,4%</t>
+          <t>401,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>133,19%</t>
+          <t>151,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>216,94%</t>
+          <t>317,2%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 384,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 571,61</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,47; 741,67</t>
+          <t>-52,23; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 414,68</t>
+          <t>-78,44; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 582,9</t>
+          <t>-35,99; 1388,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,39; 868,86</t>
+          <t>72,92; 2225,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 225,44</t>
+          <t>-61,12; 381,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 369,38</t>
+          <t>-15,24; 738,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,92; 521,66</t>
+          <t>63,5; 1275,68</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 28,68</t>
+          <t>-7,16; 14,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,9</t>
+          <t>-3,75; 20,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 17,44</t>
+          <t>-0,73; 24,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,95</t>
+          <t>-6,3; 6,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,64</t>
+          <t>-4,36; 10,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 11,36</t>
+          <t>-3,19; 11,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 15,64</t>
+          <t>-5,08; 6,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,35</t>
+          <t>-2,66; 10,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 12,43</t>
+          <t>-0,34; 13,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>140,97%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>111,13%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137,51%</t>
+          <t>133,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>113,3%</t>
+          <t>91,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 860,54</t>
+          <t>-63,74; 359,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 493,25</t>
+          <t>-39,67; 531,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 521,45</t>
+          <t>-21,69; 651,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 163,29</t>
+          <t>-61,68; 198,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 263,61</t>
+          <t>-45,92; 273,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 374,87</t>
+          <t>-33,98; 337,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 446,15</t>
+          <t>-47,02; 148,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 301,33</t>
+          <t>-25,59; 233,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 322,71</t>
+          <t>-4,34; 299,68</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9,36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>6,69</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>8,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 8,4</t>
+          <t>-2,72; 12,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,54</t>
+          <t>0,79; 17,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 14,53</t>
+          <t>0,44; 17,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,57</t>
+          <t>-8,94; 7,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 11,73</t>
+          <t>-3,4; 15,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 15,48</t>
+          <t>-0,64; 19,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,84</t>
+          <t>-3,84; 6,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 10,86</t>
+          <t>0,51; 12,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 13,03</t>
+          <t>2,04; 14,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>139,01%</t>
+          <t>191,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>156,16%</t>
+          <t>185,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68,2%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>109,62%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; 423,26</t>
+          <t>-65,92; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 639,98</t>
+          <t>-29,91; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 622,56</t>
+          <t>-30,97; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 79,49</t>
+          <t>-59,5; 113,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 135,71</t>
+          <t>-25,76; 228,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 177,58</t>
+          <t>-7,12; 309,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 93,41</t>
+          <t>-39,88; 133,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 170,2</t>
+          <t>-0,69; 252,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,99; 203,95</t>
+          <t>10,22; 284,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>16,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>10,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 9,35</t>
+          <t>-8,56; 9,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 10,59</t>
+          <t>-7,53; 11,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 13,5</t>
+          <t>-5,79; 14,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 10,44</t>
+          <t>-8,96; 17,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 20,05</t>
+          <t>0,62; 30,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 24,13</t>
+          <t>3,45; 33,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,2</t>
+          <t>-6,01; 10,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 12,08</t>
+          <t>-0,97; 17,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,6</t>
+          <t>1,51; 20,05</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>138,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>111,69%</t>
+          <t>155,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>103,2%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 205,53</t>
+          <t>-73,98; 271,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 230,39</t>
+          <t>-60,76; 372,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 290,12</t>
+          <t>-49,31; 401,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 157,12</t>
+          <t>-55,93; 351,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 293,56</t>
+          <t>-9,2; 603,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,96; 338,56</t>
+          <t>2,17; 613,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 93,77</t>
+          <t>-47,71; 169,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 162,73</t>
+          <t>-9,68; 268,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,17; 205,16</t>
+          <t>1,35; 304,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>4,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 7,27</t>
+          <t>-5,55; 8,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 7,17</t>
+          <t>-8,26; 5,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 12,75</t>
+          <t>-2,73; 19,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 9,26</t>
+          <t>-8,36; 13,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 9,09</t>
+          <t>-8,39; 13,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 9,03</t>
+          <t>-7,9; 14,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 6,49</t>
+          <t>-4,93; 9,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,44</t>
+          <t>-5,15; 8,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 8,63</t>
+          <t>-2,67; 13,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>251,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>99,78%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-91,37; 344,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-87,57; 355,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 604,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 311,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 272,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 268,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 191,28</t>
+          <t>-76,6; 610,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 173,68</t>
+          <t>-77,35; 590,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 218,89</t>
+          <t>-50,09; 857,98</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>10,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,84</t>
+          <t>-2,58; 5,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,63</t>
+          <t>1,12; 10,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,18</t>
+          <t>4,39; 15,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,51</t>
+          <t>-2,53; 5,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,81</t>
+          <t>2,97; 12,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,59</t>
+          <t>6,7; 16,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,49</t>
+          <t>-1,32; 4,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,94</t>
+          <t>3,44; 10,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,85</t>
+          <t>6,68; 14,15</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>124,98%</t>
+          <t>155,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>105,42%</t>
+          <t>133,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>112,23%</t>
+          <t>140,29%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 164,03</t>
+          <t>-30,93; 131,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>29,6; 179,39</t>
+          <t>9,36; 242,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>57,38; 235,91</t>
+          <t>45,68; 357,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 59,35</t>
+          <t>-24,31; 82,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,12; 127,24</t>
+          <t>24,39; 178,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,47; 172,55</t>
+          <t>62,58; 249,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 74,77</t>
+          <t>-15,19; 73,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>38,59; 129,84</t>
+          <t>38,18; 170,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>66,52; 176,15</t>
+          <t>77,67; 234,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
